--- a/dev/metals_db.xlsx
+++ b/dev/metals_db.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="112">
   <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>component</t>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>origin_var</t>
   </si>
   <si>
     <t>Aluminium</t>
